--- a/resources/coffee_machine/CONTROLLER/requirements/requirements.xlsx
+++ b/resources/coffee_machine/CONTROLLER/requirements/requirements.xlsx
@@ -490,8 +490,8 @@
   </sheetPr>
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D2" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K25" activeCellId="0" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -500,9 +500,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="14.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="12.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="13.25"/>
